--- a/comratio/cratios/RandomRandom_10.xlsx
+++ b/comratio/cratios/RandomRandom_10.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>sz</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ZFP</t>
+          <t>zfp</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>FPZIP</t>
+          <t>fpzip</t>
         </is>
       </c>
     </row>
@@ -463,13 +463,13 @@
         <v>0.01171875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008056640625</v>
+        <v>0.016357421875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008056640625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008056640625</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>0.01953125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.010009765625</v>
+        <v>0.0196533203125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.010009765625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.010009765625</v>
+        <v>0.022705078125</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>0.03515625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0294189453125</v>
+        <v>0.0211181640625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0294189453125</v>
+        <v>0.0048828125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0294189453125</v>
+        <v>0.0269775390625</v>
       </c>
     </row>
     <row r="5">
@@ -514,13 +514,13 @@
         <v>0.06640625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0228271484375</v>
+        <v>0.0264892578125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0228271484375</v>
+        <v>0.005859375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0228271484375</v>
+        <v>0.03759765625</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12890625</v>
+        <v>0.10546875</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0546875</v>
+        <v>0.0323486328125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0546875</v>
+        <v>0.0078125</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0546875</v>
+        <v>0.054443359375</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.25390625</v>
+        <v>0.19921875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0875244140625</v>
+        <v>0.05065917968749999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0875244140625</v>
+        <v>0.0107421875</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0875244140625</v>
+        <v>0.0799560546875</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.28515625</v>
+        <v>0.37890625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1343994140625</v>
+        <v>0.0902099609375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1343994140625</v>
+        <v>0.017578125</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1343994140625</v>
+        <v>0.1412353515625</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.43359375</v>
+        <v>0.6484375</v>
       </c>
       <c r="C9" t="n">
-        <v>0.255615234375</v>
+        <v>0.1683349609375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.255615234375</v>
+        <v>0.0302734375</v>
       </c>
       <c r="E9" t="n">
-        <v>0.255615234375</v>
+        <v>0.26904296875</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.58984375</v>
+        <v>1.08984375</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4896240234375</v>
+        <v>0.3818359374999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4896240234375</v>
+        <v>0.056640625</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4896240234375</v>
+        <v>0.5535888671875</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.01953125</v>
+        <v>1.97265625</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9058837890625001</v>
+        <v>0.9659423828124999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9058837890625001</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9058837890625001</v>
+        <v>0.9591064453125</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9609375</v>
+        <v>1.8515625</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8955078125</v>
+        <v>0.9659423828124999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8955078125</v>
+        <v>0.111328125</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8955078125</v>
+        <v>0.9493408203125</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.94140625</v>
+        <v>1.44140625</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9031982421875</v>
+        <v>0.9537353515625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9031982421875</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9031982421875</v>
+        <v>0.9798583984375</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0234375</v>
+        <v>1.58984375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9250488281249999</v>
+        <v>0.9782714843749999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9250488281249999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9250488281249999</v>
+        <v>0.9876708984374999</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +681,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.16015625</v>
+        <v>1.578125</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9151611328125001</v>
+        <v>0.977783203125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9151611328125001</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9151611328125001</v>
+        <v>0.9882812500000001</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +698,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8359375</v>
+        <v>2.68359375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9146728515624999</v>
+        <v>0.9781494140624999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9146728515624999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9146728515624999</v>
+        <v>0.9893798828125</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.83203125</v>
+        <v>2.19921875</v>
       </c>
       <c r="C17" t="n">
-        <v>0.91650390625</v>
+        <v>0.9775390625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.91650390625</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E17" t="n">
-        <v>0.91650390625</v>
+        <v>0.9896240234375001</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.36328125</v>
+        <v>1.984375</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9161376953125</v>
+        <v>0.9788818359374999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9161376953125</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9161376953125</v>
+        <v>0.9891357421875</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.390625</v>
+        <v>2.16015625</v>
       </c>
       <c r="C19" t="n">
-        <v>0.915771484375</v>
+        <v>0.9780273437499999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.915771484375</v>
+        <v>0.107421875</v>
       </c>
       <c r="E19" t="n">
-        <v>0.915771484375</v>
+        <v>0.9893798828125</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.66015625</v>
+        <v>1.95703125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9158935546875</v>
+        <v>0.9786376953124999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9158935546875</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9158935546875</v>
+        <v>0.9893798828125</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.98046875</v>
+        <v>1.82421875</v>
       </c>
       <c r="C21" t="n">
-        <v>0.916015625</v>
+        <v>0.977294921875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.916015625</v>
+        <v>0.107421875</v>
       </c>
       <c r="E21" t="n">
-        <v>0.916015625</v>
+        <v>0.9893798828125</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9765625</v>
+        <v>1.73828125</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9184570312499999</v>
+        <v>0.9775390625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9184570312499999</v>
+        <v>0.1044921875</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9184570312499999</v>
+        <v>0.9893798828125</v>
       </c>
     </row>
     <row r="23">
@@ -817,16 +817,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.98828125</v>
+        <v>2.40625</v>
       </c>
       <c r="C23" t="n">
-        <v>0.873291015625</v>
+        <v>0.96533203125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.873291015625</v>
+        <v>0.109375</v>
       </c>
       <c r="E23" t="n">
-        <v>0.873291015625</v>
+        <v>0.9405517578125001</v>
       </c>
     </row>
     <row r="24">
@@ -834,16 +834,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.96875</v>
+        <v>2.25</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8883056640624999</v>
+        <v>0.9644775390625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8883056640624999</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8883056640624999</v>
+        <v>0.9426269531249999</v>
       </c>
     </row>
     <row r="25">
@@ -851,16 +851,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.015625</v>
+        <v>2.21875</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8917236328125</v>
+        <v>0.9649658203124999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8917236328125</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8917236328125</v>
+        <v>0.9429931640625001</v>
       </c>
     </row>
     <row r="26">
@@ -868,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.4375</v>
+        <v>2.30078125</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8934326171875</v>
+        <v>0.9631347656250001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8934326171875</v>
+        <v>0.109375</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8934326171875</v>
+        <v>0.9431152343749999</v>
       </c>
     </row>
     <row r="27">
@@ -885,16 +885,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.484375</v>
+        <v>1.9296875</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8929443359375001</v>
+        <v>0.9643554687499999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8929443359375001</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8929443359375001</v>
+        <v>0.94384765625</v>
       </c>
     </row>
     <row r="28">
@@ -902,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8515625</v>
+        <v>2.12109375</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8916015625</v>
+        <v>0.9643554687499999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8916015625</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8916015625</v>
+        <v>0.9442138671875</v>
       </c>
     </row>
     <row r="29">
@@ -919,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.046875</v>
+        <v>1.20703125</v>
       </c>
       <c r="C29" t="n">
-        <v>0.891357421875</v>
+        <v>0.9677734375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.891357421875</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E29" t="n">
-        <v>0.891357421875</v>
+        <v>0.9442138671875</v>
       </c>
     </row>
     <row r="30">
@@ -936,16 +936,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.0625</v>
+        <v>1.36328125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8908691406249999</v>
+        <v>0.9720458984374999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8908691406249999</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8908691406249999</v>
+        <v>0.944091796875</v>
       </c>
     </row>
     <row r="31">
@@ -953,16 +953,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.97265625</v>
+        <v>1.328125</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8922119140625</v>
+        <v>0.9731445312500001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8922119140625</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8922119140625</v>
+        <v>0.9442138671875</v>
       </c>
     </row>
     <row r="32">
@@ -970,16 +970,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.97265625</v>
+        <v>1.328125</v>
       </c>
       <c r="C32" t="n">
-        <v>0.892333984375</v>
+        <v>0.9731445312500001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.892333984375</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E32" t="n">
-        <v>0.892333984375</v>
+        <v>0.9442138671875</v>
       </c>
     </row>
     <row r="33">
@@ -987,16 +987,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.95703125</v>
+        <v>1.328125</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8916015625</v>
+        <v>0.9732666015624999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8916015625</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8916015625</v>
+        <v>0.94384765625</v>
       </c>
     </row>
     <row r="34">
@@ -1004,16 +1004,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.9453125</v>
+        <v>1.328125</v>
       </c>
       <c r="C34" t="n">
-        <v>0.89599609375</v>
+        <v>0.9731445312500001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.89599609375</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E34" t="n">
-        <v>0.89599609375</v>
+        <v>0.9442138671875</v>
       </c>
     </row>
     <row r="35">
@@ -1021,16 +1021,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.859375</v>
+        <v>1.33984375</v>
       </c>
       <c r="C35" t="n">
-        <v>0.884521484375</v>
+        <v>0.9731445312500001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.884521484375</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E35" t="n">
-        <v>0.884521484375</v>
+        <v>0.94677734375</v>
       </c>
     </row>
     <row r="36">
@@ -1038,16 +1038,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.94921875</v>
+        <v>1.30859375</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8713378906249999</v>
+        <v>0.9729003906250001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8713378906249999</v>
+        <v>0.1083984375</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8713378906249999</v>
+        <v>0.9892578125000001</v>
       </c>
     </row>
     <row r="37">
@@ -1055,16 +1055,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.9609375</v>
+        <v>1.30859375</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8712158203125</v>
+        <v>0.9729003906250001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8712158203125</v>
+        <v>0.1083984375</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8712158203125</v>
+        <v>0.9893798828125</v>
       </c>
     </row>
     <row r="38">
@@ -1072,16 +1072,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.9453125</v>
+        <v>1.30078125</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8719482421875</v>
+        <v>0.9732666015624999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8719482421875</v>
+        <v>0.1083984375</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8719482421875</v>
+        <v>0.9891357421875</v>
       </c>
     </row>
     <row r="39">
@@ -1089,16 +1089,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.97265625</v>
+        <v>1.30078125</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8662109375</v>
+        <v>0.9732666015624999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8662109375</v>
+        <v>0.1083984375</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8662109375</v>
+        <v>0.9891357421875</v>
       </c>
     </row>
     <row r="40">
@@ -1106,16 +1106,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.9609375</v>
+        <v>1.30859375</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8696289062499999</v>
+        <v>0.9732666015624999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8696289062499999</v>
+        <v>0.107421875</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8696289062499999</v>
+        <v>0.9896240234375001</v>
       </c>
     </row>
     <row r="41">
@@ -1123,16 +1123,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.734375</v>
+        <v>1.2421875</v>
       </c>
       <c r="C41" t="n">
-        <v>0.879150390625</v>
+        <v>0.9744873046874999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.879150390625</v>
+        <v>0.107421875</v>
       </c>
       <c r="E41" t="n">
-        <v>0.879150390625</v>
+        <v>0.8715820312500001</v>
       </c>
     </row>
     <row r="42">
@@ -1140,16 +1140,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.96875</v>
+        <v>1.1171875</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8853759765625001</v>
+        <v>0.9722900390625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8853759765625001</v>
+        <v>0.1083984375</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8853759765625001</v>
+        <v>0.9031982421875</v>
       </c>
     </row>
     <row r="43">
@@ -1157,16 +1157,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.9296875</v>
+        <v>1.1953125</v>
       </c>
       <c r="C43" t="n">
-        <v>0.896240234375</v>
+        <v>0.9722900390625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.896240234375</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E43" t="n">
-        <v>0.896240234375</v>
+        <v>0.9213867187499999</v>
       </c>
     </row>
     <row r="44">
@@ -1174,16 +1174,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.9921875</v>
+        <v>1.2109375</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9039306640625001</v>
+        <v>0.9711914062500001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9039306640625001</v>
+        <v>0.10546875</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9039306640625001</v>
+        <v>0.9180908203125001</v>
       </c>
     </row>
     <row r="45">
@@ -1191,16 +1191,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.015625</v>
+        <v>1.171875</v>
       </c>
       <c r="C45" t="n">
-        <v>0.903076171875</v>
+        <v>0.9711914062500001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.903076171875</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E45" t="n">
-        <v>0.903076171875</v>
+        <v>0.923828125</v>
       </c>
     </row>
     <row r="46">
@@ -1208,16 +1208,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.9609375</v>
+        <v>1.6171875</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9024658203125001</v>
+        <v>0.966796875</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9024658203125001</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9024658203125001</v>
+        <v>0.9255371093749999</v>
       </c>
     </row>
     <row r="47">
@@ -1225,16 +1225,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.41015625</v>
+        <v>1.6328125</v>
       </c>
       <c r="C47" t="n">
-        <v>0.90185546875</v>
+        <v>0.9656982421874999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.90185546875</v>
+        <v>0.10546875</v>
       </c>
       <c r="E47" t="n">
-        <v>0.90185546875</v>
+        <v>0.9251708984375001</v>
       </c>
     </row>
     <row r="48">
@@ -1242,16 +1242,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.53125</v>
+        <v>1.75</v>
       </c>
       <c r="C48" t="n">
-        <v>0.901123046875</v>
+        <v>0.9658203125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.901123046875</v>
+        <v>0.10546875</v>
       </c>
       <c r="E48" t="n">
-        <v>0.901123046875</v>
+        <v>0.9254150390625001</v>
       </c>
     </row>
     <row r="49">
@@ -1259,16 +1259,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.40234375</v>
+        <v>2.9453125</v>
       </c>
       <c r="C49" t="n">
-        <v>0.901123046875</v>
+        <v>0.9666748046875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.901123046875</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E49" t="n">
-        <v>0.901123046875</v>
+        <v>0.9254150390625001</v>
       </c>
     </row>
     <row r="50">
@@ -1276,16 +1276,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.34375</v>
+        <v>3.0078125</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9013671875</v>
+        <v>0.965576171875</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9013671875</v>
+        <v>0.10546875</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9013671875</v>
+        <v>0.9249267578125</v>
       </c>
     </row>
     <row r="51">
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.515625</v>
+        <v>3.21484375</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9593505859375</v>
+        <v>0.9647216796875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9593505859375</v>
+        <v>0.1083984375</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9593505859375</v>
+        <v>0.9462890625000001</v>
       </c>
     </row>
     <row r="52">
@@ -1310,16 +1310,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.515625</v>
+        <v>3.4296875</v>
       </c>
       <c r="C52" t="n">
-        <v>0.959228515625</v>
+        <v>0.9652099609375001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.959228515625</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E52" t="n">
-        <v>0.959228515625</v>
+        <v>0.9500732421874999</v>
       </c>
     </row>
     <row r="53">
@@ -1327,16 +1327,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.17578125</v>
+        <v>3.390625</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9525146484375</v>
+        <v>0.9658203125</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9525146484375</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9525146484375</v>
+        <v>0.959228515625</v>
       </c>
     </row>
     <row r="54">
@@ -1344,16 +1344,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.08984375</v>
+        <v>3.4296875</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9534912109375</v>
+        <v>0.9660644531250001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9534912109375</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9534912109375</v>
+        <v>0.9583740234374999</v>
       </c>
     </row>
     <row r="55">
@@ -1361,16 +1361,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.12890625</v>
+        <v>3.20703125</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9532470703125</v>
+        <v>0.9676513671875</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9532470703125</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9532470703125</v>
+        <v>0.9637451171874999</v>
       </c>
     </row>
     <row r="56">
@@ -1378,16 +1378,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.86328125</v>
+        <v>3.41796875</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9548339843749999</v>
+        <v>0.9658203125</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9548339843749999</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9548339843749999</v>
+        <v>0.9641113281250001</v>
       </c>
     </row>
     <row r="57">
@@ -1395,16 +1395,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.91796875</v>
+        <v>3.3671875</v>
       </c>
       <c r="C57" t="n">
-        <v>0.954345703125</v>
+        <v>0.9663085937499999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.954345703125</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E57" t="n">
-        <v>0.954345703125</v>
+        <v>0.9639892578124999</v>
       </c>
     </row>
     <row r="58">
@@ -1412,16 +1412,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.16015625</v>
+        <v>2.9765625</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9539794921875</v>
+        <v>0.9658203125</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9539794921875</v>
+        <v>0.109375</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9539794921875</v>
+        <v>0.9641113281250001</v>
       </c>
     </row>
     <row r="59">
@@ -1429,16 +1429,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.90625</v>
+        <v>3.19140625</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9539794921875</v>
+        <v>0.9663085937499999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9539794921875</v>
+        <v>0.109375</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9539794921875</v>
+        <v>0.9638671874999999</v>
       </c>
     </row>
     <row r="60">
@@ -1446,16 +1446,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.9296875</v>
+        <v>3.26171875</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9537353515625</v>
+        <v>0.9654541015625001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9537353515625</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9537353515625</v>
+        <v>0.9639892578124999</v>
       </c>
     </row>
     <row r="61">
@@ -1463,16 +1463,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.19140625</v>
+        <v>3.3125</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9788818359374999</v>
+        <v>0.965576171875</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9788818359374999</v>
+        <v>0.109375</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9788818359374999</v>
+        <v>0.9544677734374999</v>
       </c>
     </row>
     <row r="62">
@@ -1480,16 +1480,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.15234375</v>
+        <v>3.28515625</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9782714843749999</v>
+        <v>0.9649658203124999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9782714843749999</v>
+        <v>0.1083984375</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9782714843749999</v>
+        <v>0.9559326171875001</v>
       </c>
     </row>
     <row r="63">
@@ -1497,16 +1497,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.0625</v>
+        <v>2.69140625</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9803466796875</v>
+        <v>0.9652099609375001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9803466796875</v>
+        <v>0.10546875</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9803466796875</v>
+        <v>0.9376220703125001</v>
       </c>
     </row>
     <row r="64">
@@ -1514,16 +1514,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.1875</v>
+        <v>3.03125</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9699707031249999</v>
+        <v>0.9664306640625001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9699707031249999</v>
+        <v>0.10546875</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9699707031249999</v>
+        <v>0.9455566406250001</v>
       </c>
     </row>
     <row r="65">
@@ -1531,16 +1531,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.2109375</v>
+        <v>3.078125</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9716796874999999</v>
+        <v>0.96533203125</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9716796874999999</v>
+        <v>0.10546875</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9716796874999999</v>
+        <v>0.9497070312500001</v>
       </c>
     </row>
     <row r="66">
@@ -1548,16 +1548,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.47265625</v>
+        <v>3.09375</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9722900390625</v>
+        <v>0.965576171875</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9722900390625</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9722900390625</v>
+        <v>0.9497070312500001</v>
       </c>
     </row>
     <row r="67">
@@ -1565,16 +1565,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.125</v>
+        <v>3.12109375</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9721679687499999</v>
+        <v>0.9641113281250001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9721679687499999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9721679687499999</v>
+        <v>0.9495849609375</v>
       </c>
     </row>
     <row r="68">
@@ -1582,16 +1582,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.1640625</v>
+        <v>3.23828125</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9719238281250001</v>
+        <v>0.9644775390625</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9719238281250001</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9719238281250001</v>
+        <v>0.9497070312500001</v>
       </c>
     </row>
     <row r="69">
@@ -1599,16 +1599,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.5859375</v>
+        <v>3.30859375</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9715576171875</v>
+        <v>0.9644775390625</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9715576171875</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9715576171875</v>
+        <v>0.949462890625</v>
       </c>
     </row>
     <row r="70">
@@ -1616,16 +1616,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.74609375</v>
+        <v>3.33984375</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9719238281250001</v>
+        <v>0.9641113281250001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9719238281250001</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9719238281250001</v>
+        <v>0.9493408203125</v>
       </c>
     </row>
     <row r="71">
@@ -1633,16 +1633,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.75</v>
+        <v>3.33984375</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9721679687499999</v>
+        <v>0.9641113281250001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9721679687499999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9721679687499999</v>
+        <v>0.9492187499999999</v>
       </c>
     </row>
     <row r="72">
@@ -1650,16 +1650,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.75390625</v>
+        <v>3.33984375</v>
       </c>
       <c r="C72" t="n">
-        <v>0.972412109375</v>
+        <v>0.9641113281250001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.972412109375</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E72" t="n">
-        <v>0.972412109375</v>
+        <v>0.9489746093749999</v>
       </c>
     </row>
     <row r="73">
@@ -1667,16 +1667,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.77734375</v>
+        <v>3.33984375</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9716796874999999</v>
+        <v>0.9644775390625</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9716796874999999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9716796874999999</v>
+        <v>0.9488525390625</v>
       </c>
     </row>
     <row r="74">
@@ -1684,16 +1684,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.7890625</v>
+        <v>3.41015625</v>
       </c>
       <c r="C74" t="n">
-        <v>0.96875</v>
+        <v>0.9647216796875</v>
       </c>
       <c r="D74" t="n">
-        <v>0.96875</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E74" t="n">
-        <v>0.96875</v>
+        <v>0.9508056640625</v>
       </c>
     </row>
     <row r="75">
@@ -1701,16 +1701,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.5078125</v>
+        <v>3.47265625</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9683837890625</v>
+        <v>0.9647216796875</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9683837890625</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9683837890625</v>
+        <v>0.9571533203124999</v>
       </c>
     </row>
     <row r="76">
@@ -1718,16 +1718,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.5078125</v>
+        <v>3.47265625</v>
       </c>
       <c r="C76" t="n">
-        <v>0.968505859375</v>
+        <v>0.964599609375</v>
       </c>
       <c r="D76" t="n">
-        <v>0.968505859375</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E76" t="n">
-        <v>0.968505859375</v>
+        <v>0.9570312499999999</v>
       </c>
     </row>
     <row r="77">
@@ -1735,16 +1735,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.5078125</v>
+        <v>3.47265625</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9682617187499999</v>
+        <v>0.964599609375</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9682617187499999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9682617187499999</v>
+        <v>0.9575195312499999</v>
       </c>
     </row>
     <row r="78">
@@ -1752,16 +1752,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.421875</v>
+        <v>3.46875</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9631347656250001</v>
+        <v>0.9647216796875</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9631347656250001</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9631347656250001</v>
+        <v>0.9600830078125</v>
       </c>
     </row>
     <row r="79">
@@ -1769,16 +1769,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.64453125</v>
+        <v>3.55078125</v>
       </c>
       <c r="C79" t="n">
-        <v>0.968017578125</v>
+        <v>0.9647216796875</v>
       </c>
       <c r="D79" t="n">
-        <v>0.968017578125</v>
+        <v>0.107421875</v>
       </c>
       <c r="E79" t="n">
-        <v>0.968017578125</v>
+        <v>0.9378662109375</v>
       </c>
     </row>
     <row r="80">
@@ -1786,16 +1786,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.703125</v>
+        <v>3.49609375</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9677734375</v>
+        <v>0.9642333984375</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9677734375</v>
+        <v>0.107421875</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9677734375</v>
+        <v>0.9473876953124999</v>
       </c>
     </row>
     <row r="81">
@@ -1803,16 +1803,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.83984375</v>
+        <v>3.55859375</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9561767578125</v>
+        <v>0.9649658203124999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9561767578125</v>
+        <v>0.107421875</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9561767578125</v>
+        <v>0.9443359374999999</v>
       </c>
     </row>
     <row r="82">
@@ -1820,16 +1820,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.60546875</v>
+        <v>3.5859375</v>
       </c>
       <c r="C82" t="n">
-        <v>0.96728515625</v>
+        <v>0.9659423828124999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.96728515625</v>
+        <v>0.109375</v>
       </c>
       <c r="E82" t="n">
-        <v>0.96728515625</v>
+        <v>0.9388427734375</v>
       </c>
     </row>
     <row r="83">
@@ -1837,16 +1837,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.55859375</v>
+        <v>3.52734375</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9636230468749999</v>
+        <v>0.964599609375</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9636230468749999</v>
+        <v>0.1083984375</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9636230468749999</v>
+        <v>0.9356689453125</v>
       </c>
     </row>
     <row r="84">
@@ -1854,16 +1854,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.55859375</v>
+        <v>3.54296875</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9643554687499999</v>
+        <v>0.9650878906250001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9643554687499999</v>
+        <v>0.109375</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9643554687499999</v>
+        <v>0.9395751953125</v>
       </c>
     </row>
     <row r="85">
@@ -1871,16 +1871,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.46484375</v>
+        <v>3.5078125</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9647216796875</v>
+        <v>0.96533203125</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9647216796875</v>
+        <v>0.109375</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9647216796875</v>
+        <v>0.93603515625</v>
       </c>
     </row>
     <row r="86">
@@ -1888,16 +1888,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.54296875</v>
+        <v>3.46875</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9637451171874999</v>
+        <v>0.9654541015625001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9637451171874999</v>
+        <v>0.109375</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9637451171874999</v>
+        <v>0.9373779296875</v>
       </c>
     </row>
     <row r="87">
@@ -1905,16 +1905,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.4765625</v>
+        <v>3.00390625</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9632568359375</v>
+        <v>0.96484375</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9632568359375</v>
+        <v>0.109375</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9632568359375</v>
+        <v>0.9381103515625</v>
       </c>
     </row>
     <row r="88">
@@ -1922,16 +1922,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.67578125</v>
+        <v>3.171875</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9652099609375001</v>
+        <v>0.9647216796875</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9652099609375001</v>
+        <v>0.109375</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9652099609375001</v>
+        <v>0.9384765624999999</v>
       </c>
     </row>
     <row r="89">
@@ -1939,16 +1939,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.18359375</v>
+        <v>3.12109375</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9635009765625</v>
+        <v>0.9650878906250001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9635009765625</v>
+        <v>0.109375</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9635009765625</v>
+        <v>0.9390869140624999</v>
       </c>
     </row>
     <row r="90">
@@ -1956,16 +1956,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.140625</v>
+        <v>3.0625</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9260253906249999</v>
+        <v>0.9638671874999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9260253906249999</v>
+        <v>0.109375</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9260253906249999</v>
+        <v>0.944091796875</v>
       </c>
     </row>
     <row r="91">
@@ -1973,16 +1973,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.0390625</v>
+        <v>3.05078125</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9256591796875</v>
+        <v>0.9647216796875</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9256591796875</v>
+        <v>0.109375</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9256591796875</v>
+        <v>0.9433593749999999</v>
       </c>
     </row>
     <row r="92">
@@ -1990,16 +1990,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.98828125</v>
+        <v>3.2734375</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9276123046874999</v>
+        <v>0.9652099609375001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9276123046874999</v>
+        <v>0.1083984375</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9276123046874999</v>
+        <v>0.9405517578125001</v>
       </c>
     </row>
     <row r="93">
@@ -2007,16 +2007,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.03125</v>
+        <v>3.03515625</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9239501953125</v>
+        <v>0.9664306640625001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9239501953125</v>
+        <v>0.109375</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9239501953125</v>
+        <v>0.9384765624999999</v>
       </c>
     </row>
     <row r="94">
@@ -2024,16 +2024,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.03515625</v>
+        <v>3.30078125</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9239501953125</v>
+        <v>0.9643554687499999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9239501953125</v>
+        <v>0.109375</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9239501953125</v>
+        <v>0.939453125</v>
       </c>
     </row>
     <row r="95">
@@ -2041,16 +2041,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.12109375</v>
+        <v>3.49609375</v>
       </c>
       <c r="C95" t="n">
-        <v>0.92236328125</v>
+        <v>0.9638671874999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.92236328125</v>
+        <v>0.1083984375</v>
       </c>
       <c r="E95" t="n">
-        <v>0.92236328125</v>
+        <v>0.9410400390625001</v>
       </c>
     </row>
     <row r="96">
@@ -2058,16 +2058,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.203125</v>
+        <v>3.5625</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9228515624999999</v>
+        <v>0.9638671874999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9228515624999999</v>
+        <v>0.1083984375</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9228515624999999</v>
+        <v>0.9416503906250001</v>
       </c>
     </row>
     <row r="97">
@@ -2075,16 +2075,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.15625</v>
+        <v>3.453125</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9217529296874999</v>
+        <v>0.964599609375</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9217529296874999</v>
+        <v>0.1083984375</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9217529296874999</v>
+        <v>0.941162109375</v>
       </c>
     </row>
     <row r="98">
@@ -2092,16 +2092,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.03515625</v>
+        <v>3.44921875</v>
       </c>
       <c r="C98" t="n">
-        <v>0.92236328125</v>
+        <v>0.9654541015625001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.92236328125</v>
+        <v>0.1083984375</v>
       </c>
       <c r="E98" t="n">
-        <v>0.92236328125</v>
+        <v>0.9403076171874999</v>
       </c>
     </row>
     <row r="99">
@@ -2109,16 +2109,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.02734375</v>
+        <v>3.453125</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9222412109375</v>
+        <v>0.965576171875</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9222412109375</v>
+        <v>0.109375</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9222412109375</v>
+        <v>0.9404296875</v>
       </c>
     </row>
     <row r="100">
@@ -2126,16 +2126,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.24609375</v>
+        <v>3.4765625</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9560546875</v>
+        <v>0.9642333984375</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9560546875</v>
+        <v>0.107421875</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9560546875</v>
+        <v>0.9417724609374999</v>
       </c>
     </row>
     <row r="101">
@@ -2143,16 +2143,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.14453125</v>
+        <v>3.36328125</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9725341796875</v>
+        <v>0.9654541015625001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9725341796875</v>
+        <v>0.10546875</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9725341796875</v>
+        <v>0.9478759765625</v>
       </c>
     </row>
     <row r="102">
@@ -2160,16 +2160,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.19921875</v>
+        <v>3.390625</v>
       </c>
       <c r="C102" t="n">
-        <v>0.96875</v>
+        <v>0.9650878906250001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.96875</v>
+        <v>0.10546875</v>
       </c>
       <c r="E102" t="n">
-        <v>0.96875</v>
+        <v>0.9425048828124999</v>
       </c>
     </row>
     <row r="103">
@@ -2177,16 +2177,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.74609375</v>
+        <v>3.21875</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9619140625</v>
+        <v>0.9649658203124999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9619140625</v>
+        <v>0.1044921875</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9619140625</v>
+        <v>0.9479980468749999</v>
       </c>
     </row>
     <row r="104">
@@ -2194,16 +2194,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.37890625</v>
+        <v>3.40625</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9678955078125001</v>
+        <v>0.9664306640625001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9678955078125001</v>
+        <v>0.10546875</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9678955078125001</v>
+        <v>0.9455566406250001</v>
       </c>
     </row>
     <row r="105">
@@ -2211,16 +2211,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.5</v>
+        <v>3.1328125</v>
       </c>
       <c r="C105" t="n">
-        <v>0.967529296875</v>
+        <v>0.965576171875</v>
       </c>
       <c r="D105" t="n">
-        <v>0.967529296875</v>
+        <v>0.10546875</v>
       </c>
       <c r="E105" t="n">
-        <v>0.967529296875</v>
+        <v>0.9423828125</v>
       </c>
     </row>
     <row r="106">
@@ -2228,16 +2228,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.51953125</v>
+        <v>3.2578125</v>
       </c>
       <c r="C106" t="n">
-        <v>0.96728515625</v>
+        <v>0.9650878906250001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.96728515625</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E106" t="n">
-        <v>0.96728515625</v>
+        <v>0.9434814453125001</v>
       </c>
     </row>
     <row r="107">
@@ -2245,16 +2245,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.4765625</v>
+        <v>3.26953125</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9674072265624999</v>
+        <v>0.965576171875</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9674072265624999</v>
+        <v>0.10546875</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9674072265624999</v>
+        <v>0.9425048828124999</v>
       </c>
     </row>
     <row r="108">
@@ -2262,16 +2262,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.5390625</v>
+        <v>3.453125</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9663085937499999</v>
+        <v>0.9665527343749999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9663085937499999</v>
+        <v>0.10546875</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9663085937499999</v>
+        <v>0.9420166015624999</v>
       </c>
     </row>
     <row r="109">
@@ -2279,16 +2279,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.5390625</v>
+        <v>3.59375</v>
       </c>
       <c r="C109" t="n">
-        <v>0.966796875</v>
+        <v>0.9641113281250001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.966796875</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E109" t="n">
-        <v>0.966796875</v>
+        <v>0.9425048828124999</v>
       </c>
     </row>
     <row r="110">
@@ -2296,16 +2296,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.5390625</v>
+        <v>3.59375</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9671630859374999</v>
+        <v>0.9644775390625</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9671630859374999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9671630859374999</v>
+        <v>0.9427490234375</v>
       </c>
     </row>
     <row r="111">
@@ -2313,16 +2313,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.5390625</v>
+        <v>3.59765625</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9669189453125001</v>
+        <v>0.9641113281250001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9669189453125001</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9669189453125001</v>
+        <v>0.9429931640625001</v>
       </c>
     </row>
     <row r="112">
@@ -2330,16 +2330,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.5546875</v>
+        <v>3.60546875</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9677734375</v>
+        <v>0.9639892578124999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9677734375</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9677734375</v>
+        <v>0.9447021484375</v>
       </c>
     </row>
     <row r="113">
@@ -2347,16 +2347,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.62890625</v>
+        <v>3.6015625</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9689941406249999</v>
+        <v>0.9639892578124999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9689941406249999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9689941406249999</v>
+        <v>0.9497070312500001</v>
       </c>
     </row>
     <row r="114">
@@ -2364,16 +2364,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.51171875</v>
+        <v>3.5390625</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9560546875</v>
+        <v>0.96484375</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9560546875</v>
+        <v>0.10546875</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9560546875</v>
+        <v>0.955322265625</v>
       </c>
     </row>
     <row r="115">
@@ -2381,16 +2381,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.51171875</v>
+        <v>3.53515625</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9559326171875001</v>
+        <v>0.964599609375</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9559326171875001</v>
+        <v>0.10546875</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9559326171875001</v>
+        <v>0.9549560546874999</v>
       </c>
     </row>
     <row r="116">
@@ -2398,16 +2398,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.5</v>
+        <v>3.54296875</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9560546875</v>
+        <v>0.964599609375</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9560546875</v>
+        <v>0.10546875</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9560546875</v>
+        <v>0.9549560546874999</v>
       </c>
     </row>
     <row r="117">
@@ -2415,16 +2415,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.5</v>
+        <v>3.5078125</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9576416015625001</v>
+        <v>0.9644775390625</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9576416015625001</v>
+        <v>0.10546875</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9576416015625001</v>
+        <v>0.9532470703125</v>
       </c>
     </row>
     <row r="118">
@@ -2432,16 +2432,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.515625</v>
+        <v>3.62890625</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9570312499999999</v>
+        <v>0.964599609375</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9570312499999999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9570312499999999</v>
+        <v>0.9547119140624999</v>
       </c>
     </row>
   </sheetData>
